--- a/Master Thesis/Assets/xml/Datenanalyse Antizipationstest anonym.xlsx
+++ b/Master Thesis/Assets/xml/Datenanalyse Antizipationstest anonym.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\nikolaiglaab\Master Thesis\Assets\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC3EE41-A68A-4A0C-BF9B-5DDCA97097D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100ABEED-1E13-4399-8E14-37A728705B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{5A77FAC4-3EA6-4256-AB65-4AA63F64A283}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>Index</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Proband#15</t>
+  </si>
+  <si>
+    <t>richtige Positionen</t>
   </si>
 </sst>
 </file>
@@ -762,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF252F79-67EF-481F-843D-71E7590D60DD}">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -795,9 +798,10 @@
     <col min="27" max="27" width="6.921875" customWidth="1"/>
     <col min="28" max="28" width="7" customWidth="1"/>
     <col min="29" max="29" width="8.61328125" customWidth="1"/>
+    <col min="33" max="33" width="19.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,1628 +898,1676 @@
       <c r="AF1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C4">
-        <v>0.23385400000000001</v>
+        <v>1.208915</v>
       </c>
       <c r="D4">
-        <v>0.1202497</v>
+        <v>0.30492130000000001</v>
       </c>
       <c r="E4">
         <f>(C4+D4)/2</f>
-        <v>0.17705185000000001</v>
+        <v>0.75691814999999996</v>
       </c>
       <c r="F4">
-        <v>0.77464809999999995</v>
+        <v>0.75614329999999996</v>
       </c>
       <c r="G4">
-        <v>0.69000700000000004</v>
+        <v>0.93443319999999996</v>
       </c>
       <c r="H4">
         <f>(F4+G4)/2</f>
-        <v>0.73232754999999994</v>
+        <v>0.84528824999999996</v>
       </c>
       <c r="I4">
-        <v>1.1246910000000001</v>
+        <v>0.34541749999999999</v>
       </c>
       <c r="J4">
-        <v>1.1423080000000001</v>
+        <v>0.3662339</v>
       </c>
       <c r="K4">
         <f>(I4+J4)/2</f>
-        <v>1.1334995000000001</v>
+        <v>0.35582570000000002</v>
       </c>
       <c r="L4">
-        <v>0.6236429</v>
+        <v>0.40703450000000002</v>
       </c>
       <c r="M4">
-        <v>0.67402799999999996</v>
+        <v>0.34538439999999998</v>
       </c>
       <c r="N4">
         <f>(L4+M4)/2</f>
-        <v>0.64883544999999998</v>
+        <v>0.37620945</v>
       </c>
       <c r="O4">
-        <v>0.32593440000000001</v>
+        <v>0.59914330000000005</v>
       </c>
       <c r="P4">
-        <v>0.62649259999999996</v>
+        <v>0.7801747</v>
       </c>
       <c r="Q4">
         <f>(O4+P4)/2</f>
-        <v>0.47621349999999996</v>
+        <v>0.68965900000000002</v>
       </c>
       <c r="R4">
-        <v>0.77880139999999998</v>
+        <v>0.63608600000000004</v>
       </c>
       <c r="S4">
-        <v>1.2951999999999999</v>
+        <v>1.076973</v>
       </c>
       <c r="T4">
         <f>(R4+S4)/2</f>
-        <v>1.0370006999999999</v>
+        <v>0.85652949999999994</v>
       </c>
       <c r="U4">
-        <v>0.97732269999999999</v>
+        <v>0.98088649999999999</v>
       </c>
       <c r="V4">
-        <v>1.126989</v>
+        <v>0.78968870000000002</v>
       </c>
       <c r="W4">
         <f>(U4+V4)/2</f>
-        <v>1.0521558500000001</v>
+        <v>0.88528760000000006</v>
       </c>
       <c r="X4">
-        <v>0.53205049999999998</v>
+        <v>1.0089600000000001</v>
       </c>
       <c r="Y4">
-        <v>0.96724069999999995</v>
+        <v>0.8534313</v>
       </c>
       <c r="Z4">
         <f>(X4+Y4)/2</f>
-        <v>0.74964560000000002</v>
+        <v>0.93119565000000004</v>
       </c>
       <c r="AA4">
-        <v>1.265436</v>
+        <v>0.2283211</v>
       </c>
       <c r="AB4">
-        <v>0.85672820000000005</v>
+        <v>0.58720709999999998</v>
       </c>
       <c r="AC4">
         <f>(AA4+AB4)/2</f>
-        <v>1.0610821000000001</v>
+        <v>0.40776409999999996</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF4">
         <f>(E4+H4+K4+N4+Q4+T4+W4+Z4+AC4)/9</f>
-        <v>0.78531245555555562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+        <v>0.67829748888888886</v>
+      </c>
+      <c r="AG4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>0.24971309999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.59714259999999997</v>
+      </c>
+      <c r="E5">
+        <f>(C5+D5)/2</f>
+        <v>0.42342784999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.94530190000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.79568220000000001</v>
+      </c>
+      <c r="H5">
+        <f>(F5+G5)/2</f>
+        <v>0.87049204999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.65359219999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.42071769999999997</v>
+      </c>
+      <c r="K5">
+        <f>(I5+J5)/2</f>
+        <v>0.53715494999999991</v>
+      </c>
+      <c r="L5">
+        <v>0.77248000000000006</v>
+      </c>
+      <c r="M5">
+        <v>0.7214391</v>
+      </c>
+      <c r="N5">
+        <f>(L5+M5)/2</f>
+        <v>0.74695955000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.54038010000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.91972509999999996</v>
+      </c>
+      <c r="Q5">
+        <f>(O5+P5)/2</f>
+        <v>0.73005260000000005</v>
+      </c>
+      <c r="R5">
+        <v>0.57158900000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.70382670000000003</v>
+      </c>
+      <c r="T5">
+        <f>(R5+S5)/2</f>
+        <v>0.63770784999999997</v>
+      </c>
+      <c r="U5">
+        <v>0.84106890000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.89349129999999999</v>
+      </c>
+      <c r="W5">
+        <f>(U5+V5)/2</f>
+        <v>0.8672801</v>
+      </c>
+      <c r="X5">
+        <v>1.0666789999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.35076849999999998</v>
+      </c>
+      <c r="Z5">
+        <f>(X5+Y5)/2</f>
+        <v>0.70872374999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.86519489999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.69905649999999997</v>
+      </c>
+      <c r="AC5">
+        <f>(AA5+AB5)/2</f>
+        <v>0.78212569999999992</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <f>(E5+H5+K5+N5+Q5+T5+W5+Z5+AC5)/9</f>
+        <v>0.70043604444444441</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.4306932</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.25633509999999998</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E18" si="0">(C5+D5)/2</f>
+      <c r="E6">
+        <f>(C6+D6)/2</f>
         <v>0.34351414999999996</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.59300090000000005</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0.84432669999999999</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H18" si="1">(F5+G5)/2</f>
+      <c r="H6">
+        <f>(F6+G6)/2</f>
         <v>0.71866380000000007</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>0.90948459999999998</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>0.57030519999999996</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K18" si="2">(I5+J5)/2</f>
+      <c r="K6">
+        <f>(I6+J6)/2</f>
         <v>0.73989489999999991</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>0.39658579999999999</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>0.49424570000000001</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N18" si="3">(L5+M5)/2</f>
+      <c r="N6">
+        <f>(L6+M6)/2</f>
         <v>0.44541575</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>0.63124080000000005</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>0.81758889999999995</v>
       </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q18" si="4">(O5+P5)/2</f>
+      <c r="Q6">
+        <f>(O6+P6)/2</f>
         <v>0.72441485000000005</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>1.3259719999999999</v>
       </c>
-      <c r="S5">
+      <c r="S6">
         <v>0.88054560000000004</v>
       </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T18" si="5">(R5+S5)/2</f>
+      <c r="T6">
+        <f>(R6+S6)/2</f>
         <v>1.1032587999999999</v>
       </c>
-      <c r="U5">
+      <c r="U6">
         <v>0.9501077</v>
       </c>
-      <c r="V5">
+      <c r="V6">
         <v>0.84485750000000004</v>
       </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W18" si="6">(U5+V5)/2</f>
+      <c r="W6">
+        <f>(U6+V6)/2</f>
         <v>0.89748260000000002</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <v>1.0584370000000001</v>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <v>0.69212280000000004</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z18" si="7">(X5+Y5)/2</f>
+      <c r="Z6">
+        <f>(X6+Y6)/2</f>
         <v>0.8752799</v>
       </c>
-      <c r="AA5">
+      <c r="AA6">
         <v>0.58134070000000004</v>
       </c>
-      <c r="AB5">
+      <c r="AB6">
         <v>0.53900530000000002</v>
       </c>
-      <c r="AC5">
-        <f t="shared" ref="AC5:AC18" si="8">(AA5+AB5)/2</f>
+      <c r="AC6">
+        <f>(AA6+AB6)/2</f>
         <v>0.56017300000000003</v>
       </c>
-      <c r="AD5">
+      <c r="AD6">
         <v>1</v>
       </c>
-      <c r="AE5">
+      <c r="AE6">
         <v>7</v>
       </c>
-      <c r="AF5">
-        <f t="shared" ref="AF5:AF18" si="9">(E5+H5+K5+N5+Q5+T5+W5+Z5+AC5)/9</f>
+      <c r="AF6">
+        <f>(E6+H6+K6+N6+Q6+T6+W6+Z6+AC6)/9</f>
         <v>0.71201086111111112</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="AG6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>1.006162</v>
+      </c>
+      <c r="D7">
+        <v>0.6469568</v>
+      </c>
+      <c r="E7">
+        <f>(C7+D7)/2</f>
+        <v>0.82655940000000006</v>
+      </c>
+      <c r="F7">
+        <v>0.71866229999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.16970850000000001</v>
+      </c>
+      <c r="H7">
+        <f>(F7+G7)/2</f>
+        <v>0.44418540000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.98092590000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.57885279999999995</v>
+      </c>
+      <c r="K7">
+        <f>(I7+J7)/2</f>
+        <v>0.77988934999999993</v>
+      </c>
+      <c r="L7">
+        <v>0.66201259999999995</v>
+      </c>
+      <c r="M7">
+        <v>0.72747680000000003</v>
+      </c>
+      <c r="N7">
+        <f>(L7+M7)/2</f>
+        <v>0.69474469999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.64315489999999997</v>
+      </c>
+      <c r="P7">
+        <v>1.051561</v>
+      </c>
+      <c r="Q7">
+        <f>(O7+P7)/2</f>
+        <v>0.84735794999999992</v>
+      </c>
+      <c r="R7">
+        <v>0.47579739999999998</v>
+      </c>
+      <c r="S7">
+        <v>0.90947619999999996</v>
+      </c>
+      <c r="T7">
+        <f>(R7+S7)/2</f>
+        <v>0.69263679999999994</v>
+      </c>
+      <c r="U7">
+        <v>0.9090897</v>
+      </c>
+      <c r="V7">
+        <v>1.0110790000000001</v>
+      </c>
+      <c r="W7">
+        <f>(U7+V7)/2</f>
+        <v>0.96008435000000003</v>
+      </c>
+      <c r="X7">
+        <v>0.55438620000000005</v>
+      </c>
+      <c r="Y7">
+        <v>0.50102979999999997</v>
+      </c>
+      <c r="Z7">
+        <f>(X7+Y7)/2</f>
+        <v>0.52770800000000007</v>
+      </c>
+      <c r="AA7">
+        <v>0.49731789999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.77571120000000005</v>
+      </c>
+      <c r="AC7">
+        <f>(AA7+AB7)/2</f>
+        <v>0.63651455000000001</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <f>(E7+H7+K7+N7+Q7+T7+W7+Z7+AC7)/9</f>
+        <v>0.71218672222222212</v>
+      </c>
+      <c r="AG7">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>109</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>0.84414080000000002</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>0.90946380000000004</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f>(C8+D8)/2</f>
         <v>0.87680230000000003</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>1.5158830000000001</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>0.95352669999999995</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f>(F8+G8)/2</f>
         <v>1.23470485</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>0.43540430000000002</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>0.63526470000000002</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
+      <c r="K8">
+        <f>(I8+J8)/2</f>
         <v>0.53533450000000005</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>0.67555620000000005</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>0.51906390000000002</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
+      <c r="N8">
+        <f>(L8+M8)/2</f>
         <v>0.59731005000000004</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <v>0.79932190000000003</v>
       </c>
-      <c r="P6">
+      <c r="P8">
         <v>1.1798500000000001</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
+      <c r="Q8">
+        <f>(O8+P8)/2</f>
         <v>0.98958595000000005</v>
       </c>
-      <c r="R6">
+      <c r="R8">
         <v>0.27866600000000002</v>
       </c>
-      <c r="S6">
+      <c r="S8">
         <v>0.42814659999999999</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="5"/>
+      <c r="T8">
+        <f>(R8+S8)/2</f>
         <v>0.35340630000000001</v>
       </c>
-      <c r="U6">
+      <c r="U8">
         <v>0.659582</v>
       </c>
-      <c r="V6">
+      <c r="V8">
         <v>0.50371410000000005</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
+      <c r="W8">
+        <f>(U8+V8)/2</f>
         <v>0.58164805000000008</v>
       </c>
-      <c r="X6">
+      <c r="X8">
         <v>0.73218349999999999</v>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <v>0.80092039999999998</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
+      <c r="Z8">
+        <f>(X8+Y8)/2</f>
         <v>0.76655194999999998</v>
       </c>
-      <c r="AA6">
+      <c r="AA8">
         <v>0.90927290000000005</v>
       </c>
-      <c r="AB6">
+      <c r="AB8">
         <v>0.88638269999999997</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="8"/>
+      <c r="AC8">
+        <f>(AA8+AB8)/2</f>
         <v>0.89782779999999995</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>5</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="9"/>
-        <v>0.75924130555555558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7">
-        <v>1.820192</v>
-      </c>
-      <c r="D7">
-        <v>0.58740879999999995</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1.2038004</v>
-      </c>
-      <c r="F7">
-        <v>0.57720349999999998</v>
-      </c>
-      <c r="G7">
-        <v>1.00806</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0.79263174999999997</v>
-      </c>
-      <c r="I7">
-        <v>0.70329319999999995</v>
-      </c>
-      <c r="J7">
-        <v>0.59845349999999997</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0.65087334999999991</v>
-      </c>
-      <c r="L7">
-        <v>1.0363560000000001</v>
-      </c>
-      <c r="M7">
-        <v>1.0214529999999999</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>1.0289044999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.43814039999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.51648280000000002</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>0.4773116</v>
-      </c>
-      <c r="R7">
-        <v>0.80948430000000005</v>
-      </c>
-      <c r="S7">
-        <v>1.2938810000000001</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="5"/>
-        <v>1.0516826500000001</v>
-      </c>
-      <c r="U7">
-        <v>0.64944210000000002</v>
-      </c>
-      <c r="V7">
-        <v>1.0365230000000001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>0.84298255000000011</v>
-      </c>
-      <c r="X7">
-        <v>0.42599989999999999</v>
-      </c>
-      <c r="Y7">
-        <v>0.48553429999999997</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="7"/>
-        <v>0.45576709999999998</v>
-      </c>
-      <c r="AA7">
-        <v>1.3486899999999999</v>
-      </c>
-      <c r="AB7">
-        <v>0.86851560000000005</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="8"/>
-        <v>1.1086027999999999</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-      <c r="AE7">
-        <v>9</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="9"/>
-        <v>0.84583963333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8">
-        <v>0.60494110000000001</v>
-      </c>
-      <c r="D8">
-        <v>1.28732</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.94613055000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.66323799999999999</v>
-      </c>
-      <c r="G8">
-        <v>1.096325</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.87978149999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.89976270000000003</v>
-      </c>
-      <c r="J8">
-        <v>0.76446179999999997</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>0.83211225</v>
-      </c>
-      <c r="L8">
-        <v>0.56558920000000001</v>
-      </c>
-      <c r="M8">
-        <v>1.0591699999999999</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0.81237959999999998</v>
-      </c>
-      <c r="O8">
-        <v>1.303876</v>
-      </c>
-      <c r="P8">
-        <v>0.50375000000000003</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>0.90381299999999998</v>
-      </c>
-      <c r="R8">
-        <v>0.54723409999999995</v>
-      </c>
-      <c r="S8">
-        <v>0.48097489999999998</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="5"/>
-        <v>0.51410449999999996</v>
-      </c>
-      <c r="U8">
-        <v>0.96698360000000005</v>
-      </c>
-      <c r="V8">
-        <v>1.2076359999999999</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
-        <v>1.0873097999999999</v>
-      </c>
-      <c r="X8">
-        <v>0.17489879999999999</v>
-      </c>
-      <c r="Y8">
-        <v>1.632646</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="7"/>
-        <v>0.90377240000000003</v>
-      </c>
-      <c r="AA8">
-        <v>0.39905590000000002</v>
-      </c>
-      <c r="AB8">
-        <v>0.4805084</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="8"/>
-        <v>0.43978214999999998</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8">
+        <f>(E8+H8+K8+N8+Q8+T8+W8+Z8+AC8)/9</f>
+        <v>0.75924130555555558</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <v>0.35284100000000002</v>
+      </c>
+      <c r="D9">
+        <v>1.1846049999999999</v>
+      </c>
+      <c r="E9">
+        <f>(C9+D9)/2</f>
+        <v>0.76872299999999993</v>
+      </c>
+      <c r="F9">
+        <v>0.47599459999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.55485759999999995</v>
+      </c>
+      <c r="H9">
+        <f>(F9+G9)/2</f>
+        <v>0.5154261</v>
+      </c>
+      <c r="I9">
+        <v>0.66577580000000003</v>
+      </c>
+      <c r="J9">
+        <v>0.93596389999999996</v>
+      </c>
+      <c r="K9">
+        <f>(I9+J9)/2</f>
+        <v>0.80086984999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.5001</v>
+      </c>
+      <c r="M9">
+        <v>0.87381350000000002</v>
+      </c>
+      <c r="N9">
+        <f>(L9+M9)/2</f>
+        <v>1.18695675</v>
+      </c>
+      <c r="O9">
+        <v>0.65221720000000005</v>
+      </c>
+      <c r="P9">
+        <v>1.176868</v>
+      </c>
+      <c r="Q9">
+        <f>(O9+P9)/2</f>
+        <v>0.91454260000000009</v>
+      </c>
+      <c r="R9">
+        <v>0.93696860000000004</v>
+      </c>
+      <c r="S9">
+        <v>1.0313840000000001</v>
+      </c>
+      <c r="T9">
+        <f>(R9+S9)/2</f>
+        <v>0.98417630000000011</v>
+      </c>
+      <c r="U9">
+        <v>0.27613510000000002</v>
+      </c>
+      <c r="V9">
+        <v>0.3138686</v>
+      </c>
+      <c r="W9">
+        <f>(U9+V9)/2</f>
+        <v>0.29500185000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.33796290000000001</v>
+      </c>
+      <c r="Y9">
+        <v>0.57350219999999996</v>
+      </c>
+      <c r="Z9">
+        <f>(X9+Y9)/2</f>
+        <v>0.45573255000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.87256120000000004</v>
+      </c>
+      <c r="AB9">
+        <v>1.102033</v>
+      </c>
+      <c r="AC9">
+        <f>(AA9+AB9)/2</f>
+        <v>0.98729710000000004</v>
+      </c>
+      <c r="AD9">
         <v>2</v>
       </c>
-      <c r="AF8">
-        <f t="shared" si="9"/>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <f>(E9+H9+K9+N9+Q9+T9+W9+Z9+AC9)/9</f>
+        <v>0.76763623333333353</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>0.23385400000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.1202497</v>
+      </c>
+      <c r="E10">
+        <f>(C10+D10)/2</f>
+        <v>0.17705185000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.77464809999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.69000700000000004</v>
+      </c>
+      <c r="H10">
+        <f>(F10+G10)/2</f>
+        <v>0.73232754999999994</v>
+      </c>
+      <c r="I10">
+        <v>1.1246910000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.1423080000000001</v>
+      </c>
+      <c r="K10">
+        <f>(I10+J10)/2</f>
+        <v>1.1334995000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.6236429</v>
+      </c>
+      <c r="M10">
+        <v>0.67402799999999996</v>
+      </c>
+      <c r="N10">
+        <f>(L10+M10)/2</f>
+        <v>0.64883544999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.32593440000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.62649259999999996</v>
+      </c>
+      <c r="Q10">
+        <f>(O10+P10)/2</f>
+        <v>0.47621349999999996</v>
+      </c>
+      <c r="R10">
+        <v>0.77880139999999998</v>
+      </c>
+      <c r="S10">
+        <v>1.2951999999999999</v>
+      </c>
+      <c r="T10">
+        <f>(R10+S10)/2</f>
+        <v>1.0370006999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.97732269999999999</v>
+      </c>
+      <c r="V10">
+        <v>1.126989</v>
+      </c>
+      <c r="W10">
+        <f>(U10+V10)/2</f>
+        <v>1.0521558500000001</v>
+      </c>
+      <c r="X10">
+        <v>0.53205049999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.96724069999999995</v>
+      </c>
+      <c r="Z10">
+        <f>(X10+Y10)/2</f>
+        <v>0.74964560000000002</v>
+      </c>
+      <c r="AA10">
+        <v>1.265436</v>
+      </c>
+      <c r="AB10">
+        <v>0.85672820000000005</v>
+      </c>
+      <c r="AC10">
+        <f>(AA10+AB10)/2</f>
+        <v>1.0610821000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <f>(E10+H10+K10+N10+Q10+T10+W10+Z10+AC10)/9</f>
+        <v>0.78531245555555562</v>
+      </c>
+      <c r="AG10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>0.60494110000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.28732</v>
+      </c>
+      <c r="E11">
+        <f>(C11+D11)/2</f>
+        <v>0.94613055000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.66323799999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.096325</v>
+      </c>
+      <c r="H11">
+        <f>(F11+G11)/2</f>
+        <v>0.87978149999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.89976270000000003</v>
+      </c>
+      <c r="J11">
+        <v>0.76446179999999997</v>
+      </c>
+      <c r="K11">
+        <f>(I11+J11)/2</f>
+        <v>0.83211225</v>
+      </c>
+      <c r="L11">
+        <v>0.56558920000000001</v>
+      </c>
+      <c r="M11">
+        <v>1.0591699999999999</v>
+      </c>
+      <c r="N11">
+        <f>(L11+M11)/2</f>
+        <v>0.81237959999999998</v>
+      </c>
+      <c r="O11">
+        <v>1.303876</v>
+      </c>
+      <c r="P11">
+        <v>0.50375000000000003</v>
+      </c>
+      <c r="Q11">
+        <f>(O11+P11)/2</f>
+        <v>0.90381299999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.54723409999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.48097489999999998</v>
+      </c>
+      <c r="T11">
+        <f>(R11+S11)/2</f>
+        <v>0.51410449999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.96698360000000005</v>
+      </c>
+      <c r="V11">
+        <v>1.2076359999999999</v>
+      </c>
+      <c r="W11">
+        <f>(U11+V11)/2</f>
+        <v>1.0873097999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.17489879999999999</v>
+      </c>
+      <c r="Y11">
+        <v>1.632646</v>
+      </c>
+      <c r="Z11">
+        <f>(X11+Y11)/2</f>
+        <v>0.90377240000000003</v>
+      </c>
+      <c r="AA11">
+        <v>0.39905590000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.4805084</v>
+      </c>
+      <c r="AC11">
+        <f>(AA11+AB11)/2</f>
+        <v>0.43978214999999998</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <f>(E11+H11+K11+N11+Q11+T11+W11+Z11+AC11)/9</f>
         <v>0.81324286111111121</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9">
-        <v>1.190062</v>
-      </c>
-      <c r="D9">
-        <v>1.3457809999999999</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.2679214999999999</v>
-      </c>
-      <c r="F9">
-        <v>1.1281350000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.51356950000000001</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.82085225000000006</v>
-      </c>
-      <c r="I9">
-        <v>0.8166274</v>
-      </c>
-      <c r="J9">
-        <v>0.81364349999999996</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>0.81513544999999998</v>
-      </c>
-      <c r="L9">
-        <v>0.52580579999999999</v>
-      </c>
-      <c r="M9">
-        <v>1.2136480000000001</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>0.86972690000000008</v>
-      </c>
-      <c r="O9">
-        <v>0.64742869999999997</v>
-      </c>
-      <c r="P9">
-        <v>1.287906</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>0.96766734999999993</v>
-      </c>
-      <c r="R9">
-        <v>0.41169909999999998</v>
-      </c>
-      <c r="S9">
-        <v>0.7173195</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="5"/>
-        <v>0.56450929999999999</v>
-      </c>
-      <c r="U9">
-        <v>1.133095</v>
-      </c>
-      <c r="V9">
-        <v>0.99399139999999997</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>1.0635432</v>
-      </c>
-      <c r="X9">
-        <v>0.72388269999999999</v>
-      </c>
-      <c r="Y9">
-        <v>1.337353</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>1.0306178500000001</v>
-      </c>
-      <c r="AA9">
-        <v>0.29097070000000003</v>
-      </c>
-      <c r="AB9">
-        <v>0.51417440000000003</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="8"/>
-        <v>0.40257255000000003</v>
-      </c>
-      <c r="AD9">
+      <c r="AG11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>0.59192069999999997</v>
+      </c>
+      <c r="D12">
+        <v>1.3680650000000001</v>
+      </c>
+      <c r="E12">
+        <f>(C12+D12)/2</f>
+        <v>0.97999285000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.51154279999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.78329470000000001</v>
+      </c>
+      <c r="H12">
+        <f>(F12+G12)/2</f>
+        <v>0.64741874999999993</v>
+      </c>
+      <c r="I12">
+        <v>1.008251</v>
+      </c>
+      <c r="J12">
+        <v>1.099945</v>
+      </c>
+      <c r="K12">
+        <f>(I12+J12)/2</f>
+        <v>1.054098</v>
+      </c>
+      <c r="L12">
+        <v>0.64750090000000005</v>
+      </c>
+      <c r="M12">
+        <v>0.38825419999999999</v>
+      </c>
+      <c r="N12">
+        <f>(L12+M12)/2</f>
+        <v>0.51787755000000002</v>
+      </c>
+      <c r="O12">
+        <v>0.95735599999999998</v>
+      </c>
+      <c r="P12">
+        <v>1.0080210000000001</v>
+      </c>
+      <c r="Q12">
+        <f>(O12+P12)/2</f>
+        <v>0.98268850000000008</v>
+      </c>
+      <c r="R12">
+        <v>0.69514030000000004</v>
+      </c>
+      <c r="S12">
+        <v>1.408865</v>
+      </c>
+      <c r="T12">
+        <f>(R12+S12)/2</f>
+        <v>1.0520026499999999</v>
+      </c>
+      <c r="U12">
+        <v>0.50748760000000004</v>
+      </c>
+      <c r="V12">
+        <v>0.71287469999999997</v>
+      </c>
+      <c r="W12">
+        <f>(U12+V12)/2</f>
+        <v>0.61018115000000006</v>
+      </c>
+      <c r="X12">
+        <v>0.78538859999999999</v>
+      </c>
+      <c r="Y12">
+        <v>0.74040799999999996</v>
+      </c>
+      <c r="Z12">
+        <f>(X12+Y12)/2</f>
+        <v>0.76289830000000003</v>
+      </c>
+      <c r="AA12">
+        <v>0.86730450000000003</v>
+      </c>
+      <c r="AB12">
+        <v>0.83768730000000002</v>
+      </c>
+      <c r="AC12">
+        <f>(AA12+AB12)/2</f>
+        <v>0.85249590000000008</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <f>(E12+H12+K12+N12+Q12+T12+W12+Z12+AC12)/9</f>
+        <v>0.82885040555555556</v>
+      </c>
+      <c r="AG12">
         <v>1</v>
       </c>
-      <c r="AE9">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>1.820192</v>
+      </c>
+      <c r="D13">
+        <v>0.58740879999999995</v>
+      </c>
+      <c r="E13">
+        <f>(C13+D13)/2</f>
+        <v>1.2038004</v>
+      </c>
+      <c r="F13">
+        <v>0.57720349999999998</v>
+      </c>
+      <c r="G13">
+        <v>1.00806</v>
+      </c>
+      <c r="H13">
+        <f>(F13+G13)/2</f>
+        <v>0.79263174999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.70329319999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.59845349999999997</v>
+      </c>
+      <c r="K13">
+        <f>(I13+J13)/2</f>
+        <v>0.65087334999999991</v>
+      </c>
+      <c r="L13">
+        <v>1.0363560000000001</v>
+      </c>
+      <c r="M13">
+        <v>1.0214529999999999</v>
+      </c>
+      <c r="N13">
+        <f>(L13+M13)/2</f>
+        <v>1.0289044999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.43814039999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.51648280000000002</v>
+      </c>
+      <c r="Q13">
+        <f>(O13+P13)/2</f>
+        <v>0.4773116</v>
+      </c>
+      <c r="R13">
+        <v>0.80948430000000005</v>
+      </c>
+      <c r="S13">
+        <v>1.2938810000000001</v>
+      </c>
+      <c r="T13">
+        <f>(R13+S13)/2</f>
+        <v>1.0516826500000001</v>
+      </c>
+      <c r="U13">
+        <v>0.64944210000000002</v>
+      </c>
+      <c r="V13">
+        <v>1.0365230000000001</v>
+      </c>
+      <c r="W13">
+        <f>(U13+V13)/2</f>
+        <v>0.84298255000000011</v>
+      </c>
+      <c r="X13">
+        <v>0.42599989999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.48553429999999997</v>
+      </c>
+      <c r="Z13">
+        <f>(X13+Y13)/2</f>
+        <v>0.45576709999999998</v>
+      </c>
+      <c r="AA13">
+        <v>1.3486899999999999</v>
+      </c>
+      <c r="AB13">
+        <v>0.86851560000000005</v>
+      </c>
+      <c r="AC13">
+        <f>(AA13+AB13)/2</f>
+        <v>1.1086027999999999</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>9</v>
+      </c>
+      <c r="AF13">
+        <f>(E13+H13+K13+N13+Q13+T13+W13+Z13+AC13)/9</f>
+        <v>0.84583963333333334</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14">
+        <v>1.3213870000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.2614727</v>
+      </c>
+      <c r="E14">
+        <f>(C14+D14)/2</f>
+        <v>0.7914298500000001</v>
+      </c>
+      <c r="F14">
+        <v>0.2501564</v>
+      </c>
+      <c r="G14">
+        <v>1.2658199999999999</v>
+      </c>
+      <c r="H14">
+        <f>(F14+G14)/2</f>
+        <v>0.7579882</v>
+      </c>
+      <c r="I14">
+        <v>0.29431930000000001</v>
+      </c>
+      <c r="J14">
+        <v>1.3748929999999999</v>
+      </c>
+      <c r="K14">
+        <f>(I14+J14)/2</f>
+        <v>0.83460614999999994</v>
+      </c>
+      <c r="L14">
+        <v>0.8137662</v>
+      </c>
+      <c r="M14">
+        <v>1.34053</v>
+      </c>
+      <c r="N14">
+        <f>(L14+M14)/2</f>
+        <v>1.0771481000000001</v>
+      </c>
+      <c r="O14">
+        <v>1.2334780000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.470746</v>
+      </c>
+      <c r="Q14">
+        <f>(O14+P14)/2</f>
+        <v>0.85211199999999998</v>
+      </c>
+      <c r="R14">
+        <v>1.092633</v>
+      </c>
+      <c r="S14">
+        <v>1.1456550000000001</v>
+      </c>
+      <c r="T14">
+        <f>(R14+S14)/2</f>
+        <v>1.1191439999999999</v>
+      </c>
+      <c r="U14">
+        <v>1.0387740000000001</v>
+      </c>
+      <c r="V14">
+        <v>0.62824599999999997</v>
+      </c>
+      <c r="W14">
+        <f>(U14+V14)/2</f>
+        <v>0.83350999999999997</v>
+      </c>
+      <c r="X14">
+        <v>0.26875359999999998</v>
+      </c>
+      <c r="Y14">
+        <v>1.1366769999999999</v>
+      </c>
+      <c r="Z14">
+        <f>(X14+Y14)/2</f>
+        <v>0.70271529999999993</v>
+      </c>
+      <c r="AA14">
+        <v>0.59049390000000002</v>
+      </c>
+      <c r="AB14">
+        <v>0.71793450000000003</v>
+      </c>
+      <c r="AC14">
+        <f>(AA14+AB14)/2</f>
+        <v>0.65421419999999997</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>5</v>
       </c>
-      <c r="AF9">
-        <f t="shared" si="9"/>
-        <v>0.86694959444444442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10">
-        <v>1.006162</v>
-      </c>
-      <c r="D10">
-        <v>0.6469568</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.82655940000000006</v>
-      </c>
-      <c r="F10">
-        <v>0.71866229999999998</v>
-      </c>
-      <c r="G10">
-        <v>0.16970850000000001</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.44418540000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.98092590000000002</v>
-      </c>
-      <c r="J10">
-        <v>0.57885279999999995</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0.77988934999999993</v>
-      </c>
-      <c r="L10">
-        <v>0.66201259999999995</v>
-      </c>
-      <c r="M10">
-        <v>0.72747680000000003</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>0.69474469999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.64315489999999997</v>
-      </c>
-      <c r="P10">
-        <v>1.051561</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>0.84735794999999992</v>
-      </c>
-      <c r="R10">
-        <v>0.47579739999999998</v>
-      </c>
-      <c r="S10">
-        <v>0.90947619999999996</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="5"/>
-        <v>0.69263679999999994</v>
-      </c>
-      <c r="U10">
-        <v>0.9090897</v>
-      </c>
-      <c r="V10">
-        <v>1.0110790000000001</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="6"/>
-        <v>0.96008435000000003</v>
-      </c>
-      <c r="X10">
-        <v>0.55438620000000005</v>
-      </c>
-      <c r="Y10">
-        <v>0.50102979999999997</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="7"/>
-        <v>0.52770800000000007</v>
-      </c>
-      <c r="AA10">
-        <v>0.49731789999999998</v>
-      </c>
-      <c r="AB10">
-        <v>0.77571120000000005</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="8"/>
-        <v>0.63651455000000001</v>
-      </c>
-      <c r="AD10">
+      <c r="AF14">
+        <f>(E14+H14+K14+N14+Q14+T14+W14+Z14+AC14)/9</f>
+        <v>0.84698531111111108</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15">
+        <v>0.97381359999999995</v>
+      </c>
+      <c r="D15">
+        <v>1.071971</v>
+      </c>
+      <c r="E15">
+        <f>(C15+D15)/2</f>
+        <v>1.0228923000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.089583</v>
+      </c>
+      <c r="G15">
+        <v>0.23607310000000001</v>
+      </c>
+      <c r="H15">
+        <f>(F15+G15)/2</f>
+        <v>0.66282805</v>
+      </c>
+      <c r="I15">
+        <v>0.81911210000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.43631920000000002</v>
+      </c>
+      <c r="K15">
+        <f>(I15+J15)/2</f>
+        <v>0.62771565000000007</v>
+      </c>
+      <c r="L15">
+        <v>0.71864419999999996</v>
+      </c>
+      <c r="M15">
+        <v>0.59960999999999998</v>
+      </c>
+      <c r="N15">
+        <f>(L15+M15)/2</f>
+        <v>0.65912709999999997</v>
+      </c>
+      <c r="O15">
+        <v>1.6926509999999999</v>
+      </c>
+      <c r="P15">
+        <v>1.525164</v>
+      </c>
+      <c r="Q15">
+        <f>(O15+P15)/2</f>
+        <v>1.6089074999999999</v>
+      </c>
+      <c r="R15">
+        <v>0.54456170000000004</v>
+      </c>
+      <c r="S15">
+        <v>0.45578580000000002</v>
+      </c>
+      <c r="T15">
+        <f>(R15+S15)/2</f>
+        <v>0.50017375000000008</v>
+      </c>
+      <c r="U15">
+        <v>0.39984589999999998</v>
+      </c>
+      <c r="V15">
+        <v>0.96046260000000006</v>
+      </c>
+      <c r="W15">
+        <f>(U15+V15)/2</f>
+        <v>0.68015424999999996</v>
+      </c>
+      <c r="X15">
+        <v>0.79412229999999995</v>
+      </c>
+      <c r="Y15">
+        <v>1.630071</v>
+      </c>
+      <c r="Z15">
+        <f>(X15+Y15)/2</f>
+        <v>1.2120966499999999</v>
+      </c>
+      <c r="AA15">
+        <v>0.80134919999999998</v>
+      </c>
+      <c r="AB15">
+        <v>0.50916130000000004</v>
+      </c>
+      <c r="AC15">
+        <f>(AA15+AB15)/2</f>
+        <v>0.65525524999999996</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <f>(E15+H15+K15+N15+Q15+T15+W15+Z15+AC15)/9</f>
+        <v>0.84768338888888883</v>
+      </c>
+      <c r="AG15">
         <v>4</v>
       </c>
-      <c r="AE10">
-        <v>10</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="9"/>
-        <v>0.71218672222222212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11">
-        <v>2.0224899999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.81427179999999999</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1.4183808999999998</v>
-      </c>
-      <c r="F11">
-        <v>1.773228</v>
-      </c>
-      <c r="G11">
-        <v>0.88954999999999995</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>1.3313889999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.79076840000000004</v>
-      </c>
-      <c r="J11">
-        <v>1.0100640000000001</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0.9004162</v>
-      </c>
-      <c r="L11">
-        <v>0.72606660000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.71165909999999999</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>0.71886285000000005</v>
-      </c>
-      <c r="O11">
-        <v>1.2090510000000001</v>
-      </c>
-      <c r="P11">
-        <v>0.86241009999999996</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>1.03573055</v>
-      </c>
-      <c r="R11">
-        <v>0.96493340000000005</v>
-      </c>
-      <c r="S11">
-        <v>1.1522559999999999</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="5"/>
-        <v>1.0585947</v>
-      </c>
-      <c r="U11">
-        <v>0.3033787</v>
-      </c>
-      <c r="V11">
-        <v>1.1333409999999999</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
-        <v>0.71835984999999991</v>
-      </c>
-      <c r="X11">
-        <v>0.42659530000000001</v>
-      </c>
-      <c r="Y11">
-        <v>0.51139650000000003</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="7"/>
-        <v>0.46899590000000002</v>
-      </c>
-      <c r="AA11">
-        <v>0.92946050000000002</v>
-      </c>
-      <c r="AB11">
-        <v>1.3998729999999999</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="8"/>
-        <v>1.1646667499999999</v>
-      </c>
-      <c r="AD11">
-        <v>3</v>
-      </c>
-      <c r="AE11">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="9"/>
-        <v>0.97948852222222227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12">
-        <v>0.35284100000000002</v>
-      </c>
-      <c r="D12">
-        <v>1.1846049999999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.76872299999999993</v>
-      </c>
-      <c r="F12">
-        <v>0.47599459999999999</v>
-      </c>
-      <c r="G12">
-        <v>0.55485759999999995</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.5154261</v>
-      </c>
-      <c r="I12">
-        <v>0.66577580000000003</v>
-      </c>
-      <c r="J12">
-        <v>0.93596389999999996</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>0.80086984999999999</v>
-      </c>
-      <c r="L12">
-        <v>1.5001</v>
-      </c>
-      <c r="M12">
-        <v>0.87381350000000002</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>1.18695675</v>
-      </c>
-      <c r="O12">
-        <v>0.65221720000000005</v>
-      </c>
-      <c r="P12">
-        <v>1.176868</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>0.91454260000000009</v>
-      </c>
-      <c r="R12">
-        <v>0.93696860000000004</v>
-      </c>
-      <c r="S12">
-        <v>1.0313840000000001</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="5"/>
-        <v>0.98417630000000011</v>
-      </c>
-      <c r="U12">
-        <v>0.27613510000000002</v>
-      </c>
-      <c r="V12">
-        <v>0.3138686</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
-        <v>0.29500185000000001</v>
-      </c>
-      <c r="X12">
-        <v>0.33796290000000001</v>
-      </c>
-      <c r="Y12">
-        <v>0.57350219999999996</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="7"/>
-        <v>0.45573255000000001</v>
-      </c>
-      <c r="AA12">
-        <v>0.87256120000000004</v>
-      </c>
-      <c r="AB12">
-        <v>1.102033</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="8"/>
-        <v>0.98729710000000004</v>
-      </c>
-      <c r="AD12">
-        <v>2</v>
-      </c>
-      <c r="AE12">
-        <v>6</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="9"/>
-        <v>0.76763623333333353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13">
-        <v>0.97381359999999995</v>
-      </c>
-      <c r="D13">
-        <v>1.071971</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1.0228923000000001</v>
-      </c>
-      <c r="F13">
-        <v>1.089583</v>
-      </c>
-      <c r="G13">
-        <v>0.23607310000000001</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0.66282805</v>
-      </c>
-      <c r="I13">
-        <v>0.81911210000000001</v>
-      </c>
-      <c r="J13">
-        <v>0.43631920000000002</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0.62771565000000007</v>
-      </c>
-      <c r="L13">
-        <v>0.71864419999999996</v>
-      </c>
-      <c r="M13">
-        <v>0.59960999999999998</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>0.65912709999999997</v>
-      </c>
-      <c r="O13">
-        <v>1.6926509999999999</v>
-      </c>
-      <c r="P13">
-        <v>1.525164</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>1.6089074999999999</v>
-      </c>
-      <c r="R13">
-        <v>0.54456170000000004</v>
-      </c>
-      <c r="S13">
-        <v>0.45578580000000002</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="5"/>
-        <v>0.50017375000000008</v>
-      </c>
-      <c r="U13">
-        <v>0.39984589999999998</v>
-      </c>
-      <c r="V13">
-        <v>0.96046260000000006</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>0.68015424999999996</v>
-      </c>
-      <c r="X13">
-        <v>0.79412229999999995</v>
-      </c>
-      <c r="Y13">
-        <v>1.630071</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="7"/>
-        <v>1.2120966499999999</v>
-      </c>
-      <c r="AA13">
-        <v>0.80134919999999998</v>
-      </c>
-      <c r="AB13">
-        <v>0.50916130000000004</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="8"/>
-        <v>0.65525524999999996</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>5</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="9"/>
-        <v>0.84768338888888883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14">
-        <v>1.208915</v>
-      </c>
-      <c r="D14">
-        <v>0.30492130000000001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.75691814999999996</v>
-      </c>
-      <c r="F14">
-        <v>0.75614329999999996</v>
-      </c>
-      <c r="G14">
-        <v>0.93443319999999996</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.84528824999999996</v>
-      </c>
-      <c r="I14">
-        <v>0.34541749999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.3662339</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0.35582570000000002</v>
-      </c>
-      <c r="L14">
-        <v>0.40703450000000002</v>
-      </c>
-      <c r="M14">
-        <v>0.34538439999999998</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>0.37620945</v>
-      </c>
-      <c r="O14">
-        <v>0.59914330000000005</v>
-      </c>
-      <c r="P14">
-        <v>0.7801747</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>0.68965900000000002</v>
-      </c>
-      <c r="R14">
-        <v>0.63608600000000004</v>
-      </c>
-      <c r="S14">
-        <v>1.076973</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="5"/>
-        <v>0.85652949999999994</v>
-      </c>
-      <c r="U14">
-        <v>0.98088649999999999</v>
-      </c>
-      <c r="V14">
-        <v>0.78968870000000002</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
-        <v>0.88528760000000006</v>
-      </c>
-      <c r="X14">
-        <v>1.0089600000000001</v>
-      </c>
-      <c r="Y14">
-        <v>0.8534313</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="7"/>
-        <v>0.93119565000000004</v>
-      </c>
-      <c r="AA14">
-        <v>0.2283211</v>
-      </c>
-      <c r="AB14">
-        <v>0.58720709999999998</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="8"/>
-        <v>0.40776409999999996</v>
-      </c>
-      <c r="AD14">
-        <v>3</v>
-      </c>
-      <c r="AE14">
-        <v>6</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="9"/>
-        <v>0.67829748888888886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15">
-        <v>0.24971309999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.59714259999999997</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.42342784999999999</v>
-      </c>
-      <c r="F15">
-        <v>0.94530190000000003</v>
-      </c>
-      <c r="G15">
-        <v>0.79568220000000001</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.87049204999999996</v>
-      </c>
-      <c r="I15">
-        <v>0.65359219999999996</v>
-      </c>
-      <c r="J15">
-        <v>0.42071769999999997</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0.53715494999999991</v>
-      </c>
-      <c r="L15">
-        <v>0.77248000000000006</v>
-      </c>
-      <c r="M15">
-        <v>0.7214391</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>0.74695955000000003</v>
-      </c>
-      <c r="O15">
-        <v>0.54038010000000003</v>
-      </c>
-      <c r="P15">
-        <v>0.91972509999999996</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>0.73005260000000005</v>
-      </c>
-      <c r="R15">
-        <v>0.57158900000000001</v>
-      </c>
-      <c r="S15">
-        <v>0.70382670000000003</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="5"/>
-        <v>0.63770784999999997</v>
-      </c>
-      <c r="U15">
-        <v>0.84106890000000001</v>
-      </c>
-      <c r="V15">
-        <v>0.89349129999999999</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>0.8672801</v>
-      </c>
-      <c r="X15">
-        <v>1.0666789999999999</v>
-      </c>
-      <c r="Y15">
-        <v>0.35076849999999998</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>0.70872374999999999</v>
-      </c>
-      <c r="AA15">
-        <v>0.86519489999999999</v>
-      </c>
-      <c r="AB15">
-        <v>0.69905649999999997</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="8"/>
-        <v>0.78212569999999992</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>6</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="9"/>
-        <v>0.70043604444444441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16">
-        <v>0.59192069999999997</v>
+        <v>1.123545</v>
       </c>
       <c r="D16">
-        <v>1.3680650000000001</v>
+        <v>0.82232340000000004</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.97999285000000003</v>
+        <f>(C16+D16)/2</f>
+        <v>0.97293420000000008</v>
       </c>
       <c r="F16">
-        <v>0.51154279999999996</v>
+        <v>1.1488860000000001</v>
       </c>
       <c r="G16">
-        <v>0.78329470000000001</v>
+        <v>0.63532010000000005</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0.64741874999999993</v>
+        <f>(F16+G16)/2</f>
+        <v>0.89210305000000001</v>
       </c>
       <c r="I16">
-        <v>1.008251</v>
+        <v>0.58789210000000003</v>
       </c>
       <c r="J16">
-        <v>1.099945</v>
+        <v>0.73335519999999998</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>1.054098</v>
+        <f>(I16+J16)/2</f>
+        <v>0.66062365000000001</v>
       </c>
       <c r="L16">
-        <v>0.64750090000000005</v>
+        <v>0.65588469999999999</v>
       </c>
       <c r="M16">
-        <v>0.38825419999999999</v>
+        <v>1.0463880000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
-        <v>0.51787755000000002</v>
+        <f>(L16+M16)/2</f>
+        <v>0.85113634999999999</v>
       </c>
       <c r="O16">
-        <v>0.95735599999999998</v>
+        <v>0.73422710000000002</v>
       </c>
       <c r="P16">
-        <v>1.0080210000000001</v>
+        <v>0.96441560000000004</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>0.98268850000000008</v>
+        <f>(O16+P16)/2</f>
+        <v>0.84932135000000009</v>
       </c>
       <c r="R16">
-        <v>0.69514030000000004</v>
+        <v>1.0381499999999999</v>
       </c>
       <c r="S16">
-        <v>1.408865</v>
+        <v>1.2362280000000001</v>
       </c>
       <c r="T16">
-        <f t="shared" si="5"/>
-        <v>1.0520026499999999</v>
+        <f>(R16+S16)/2</f>
+        <v>1.137189</v>
       </c>
       <c r="U16">
-        <v>0.50748760000000004</v>
+        <v>0.30948949999999997</v>
       </c>
       <c r="V16">
-        <v>0.71287469999999997</v>
+        <v>0.86394910000000003</v>
       </c>
       <c r="W16">
-        <f t="shared" si="6"/>
-        <v>0.61018115000000006</v>
+        <f>(U16+V16)/2</f>
+        <v>0.58671929999999994</v>
       </c>
       <c r="X16">
-        <v>0.78538859999999999</v>
+        <v>1.0894870000000001</v>
       </c>
       <c r="Y16">
-        <v>0.74040799999999996</v>
+        <v>1.067334</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="7"/>
-        <v>0.76289830000000003</v>
+        <f>(X16+Y16)/2</f>
+        <v>1.0784104999999999</v>
       </c>
       <c r="AA16">
-        <v>0.86730450000000003</v>
+        <v>0.64483389999999996</v>
       </c>
       <c r="AB16">
-        <v>0.83768730000000002</v>
+        <v>0.7918231</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="8"/>
-        <v>0.85249590000000008</v>
+        <f>(AA16+AB16)/2</f>
+        <v>0.71832849999999993</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <f>(E16+H16+K16+N16+Q16+T16+W16+Z16+AC16)/9</f>
+        <v>0.86075176666666686</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>1.190062</v>
+      </c>
+      <c r="D17">
+        <v>1.3457809999999999</v>
+      </c>
+      <c r="E17">
+        <f>(C17+D17)/2</f>
+        <v>1.2679214999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.1281350000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.51356950000000001</v>
+      </c>
+      <c r="H17">
+        <f>(F17+G17)/2</f>
+        <v>0.82085225000000006</v>
+      </c>
+      <c r="I17">
+        <v>0.8166274</v>
+      </c>
+      <c r="J17">
+        <v>0.81364349999999996</v>
+      </c>
+      <c r="K17">
+        <f>(I17+J17)/2</f>
+        <v>0.81513544999999998</v>
+      </c>
+      <c r="L17">
+        <v>0.52580579999999999</v>
+      </c>
+      <c r="M17">
+        <v>1.2136480000000001</v>
+      </c>
+      <c r="N17">
+        <f>(L17+M17)/2</f>
+        <v>0.86972690000000008</v>
+      </c>
+      <c r="O17">
+        <v>0.64742869999999997</v>
+      </c>
+      <c r="P17">
+        <v>1.287906</v>
+      </c>
+      <c r="Q17">
+        <f>(O17+P17)/2</f>
+        <v>0.96766734999999993</v>
+      </c>
+      <c r="R17">
+        <v>0.41169909999999998</v>
+      </c>
+      <c r="S17">
+        <v>0.7173195</v>
+      </c>
+      <c r="T17">
+        <f>(R17+S17)/2</f>
+        <v>0.56450929999999999</v>
+      </c>
+      <c r="U17">
+        <v>1.133095</v>
+      </c>
+      <c r="V17">
+        <v>0.99399139999999997</v>
+      </c>
+      <c r="W17">
+        <f>(U17+V17)/2</f>
+        <v>1.0635432</v>
+      </c>
+      <c r="X17">
+        <v>0.72388269999999999</v>
+      </c>
+      <c r="Y17">
+        <v>1.337353</v>
+      </c>
+      <c r="Z17">
+        <f>(X17+Y17)/2</f>
+        <v>1.0306178500000001</v>
+      </c>
+      <c r="AA17">
+        <v>0.29097070000000003</v>
+      </c>
+      <c r="AB17">
+        <v>0.51417440000000003</v>
+      </c>
+      <c r="AC17">
+        <f>(AA17+AB17)/2</f>
+        <v>0.40257255000000003</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <f>(E17+H17+K17+N17+Q17+T17+W17+Z17+AC17)/9</f>
+        <v>0.86694959444444442</v>
+      </c>
+      <c r="AG17">
         <v>2</v>
       </c>
-      <c r="AF16">
-        <f t="shared" si="9"/>
-        <v>0.82885040555555556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17">
-        <v>1.123545</v>
-      </c>
-      <c r="D17">
-        <v>0.82232340000000004</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.97293420000000008</v>
-      </c>
-      <c r="F17">
-        <v>1.1488860000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.63532010000000005</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0.89210305000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.58789210000000003</v>
-      </c>
-      <c r="J17">
-        <v>0.73335519999999998</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0.66062365000000001</v>
-      </c>
-      <c r="L17">
-        <v>0.65588469999999999</v>
-      </c>
-      <c r="M17">
-        <v>1.0463880000000001</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>0.85113634999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.73422710000000002</v>
-      </c>
-      <c r="P17">
-        <v>0.96441560000000004</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>0.84932135000000009</v>
-      </c>
-      <c r="R17">
-        <v>1.0381499999999999</v>
-      </c>
-      <c r="S17">
-        <v>1.2362280000000001</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="5"/>
-        <v>1.137189</v>
-      </c>
-      <c r="U17">
-        <v>0.30948949999999997</v>
-      </c>
-      <c r="V17">
-        <v>0.86394910000000003</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>0.58671929999999994</v>
-      </c>
-      <c r="X17">
-        <v>1.0894870000000001</v>
-      </c>
-      <c r="Y17">
-        <v>1.067334</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="7"/>
-        <v>1.0784104999999999</v>
-      </c>
-      <c r="AA17">
-        <v>0.64483389999999996</v>
-      </c>
-      <c r="AB17">
-        <v>0.7918231</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="8"/>
-        <v>0.71832849999999993</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>2.0224899999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.81427179999999999</v>
+      </c>
+      <c r="E18">
+        <f>(C18+D18)/2</f>
+        <v>1.4183808999999998</v>
+      </c>
+      <c r="F18">
+        <v>1.773228</v>
+      </c>
+      <c r="G18">
+        <v>0.88954999999999995</v>
+      </c>
+      <c r="H18">
+        <f>(F18+G18)/2</f>
+        <v>1.3313889999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.79076840000000004</v>
+      </c>
+      <c r="J18">
+        <v>1.0100640000000001</v>
+      </c>
+      <c r="K18">
+        <f>(I18+J18)/2</f>
+        <v>0.9004162</v>
+      </c>
+      <c r="L18">
+        <v>0.72606660000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.71165909999999999</v>
+      </c>
+      <c r="N18">
+        <f>(L18+M18)/2</f>
+        <v>0.71886285000000005</v>
+      </c>
+      <c r="O18">
+        <v>1.2090510000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.86241009999999996</v>
+      </c>
+      <c r="Q18">
+        <f>(O18+P18)/2</f>
+        <v>1.03573055</v>
+      </c>
+      <c r="R18">
+        <v>0.96493340000000005</v>
+      </c>
+      <c r="S18">
+        <v>1.1522559999999999</v>
+      </c>
+      <c r="T18">
+        <f>(R18+S18)/2</f>
+        <v>1.0585947</v>
+      </c>
+      <c r="U18">
+        <v>0.3033787</v>
+      </c>
+      <c r="V18">
+        <v>1.1333409999999999</v>
+      </c>
+      <c r="W18">
+        <f>(U18+V18)/2</f>
+        <v>0.71835984999999991</v>
+      </c>
+      <c r="X18">
+        <v>0.42659530000000001</v>
+      </c>
+      <c r="Y18">
+        <v>0.51139650000000003</v>
+      </c>
+      <c r="Z18">
+        <f>(X18+Y18)/2</f>
+        <v>0.46899590000000002</v>
+      </c>
+      <c r="AA18">
+        <v>0.92946050000000002</v>
+      </c>
+      <c r="AB18">
+        <v>1.3998729999999999</v>
+      </c>
+      <c r="AC18">
+        <f>(AA18+AB18)/2</f>
+        <v>1.1646667499999999</v>
+      </c>
+      <c r="AD18">
         <v>3</v>
       </c>
-      <c r="AF17">
-        <f t="shared" si="9"/>
-        <v>0.86075176666666686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18">
-        <v>1.3213870000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.2614727</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.7914298500000001</v>
-      </c>
-      <c r="F18">
-        <v>0.2501564</v>
-      </c>
-      <c r="G18">
-        <v>1.2658199999999999</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0.7579882</v>
-      </c>
-      <c r="I18">
-        <v>0.29431930000000001</v>
-      </c>
-      <c r="J18">
-        <v>1.3748929999999999</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0.83460614999999994</v>
-      </c>
-      <c r="L18">
-        <v>0.8137662</v>
-      </c>
-      <c r="M18">
-        <v>1.34053</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>1.0771481000000001</v>
-      </c>
-      <c r="O18">
-        <v>1.2334780000000001</v>
-      </c>
-      <c r="P18">
-        <v>0.470746</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>0.85211199999999998</v>
-      </c>
-      <c r="R18">
-        <v>1.092633</v>
-      </c>
-      <c r="S18">
-        <v>1.1456550000000001</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="5"/>
-        <v>1.1191439999999999</v>
-      </c>
-      <c r="U18">
-        <v>1.0387740000000001</v>
-      </c>
-      <c r="V18">
-        <v>0.62824599999999997</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="6"/>
-        <v>0.83350999999999997</v>
-      </c>
-      <c r="X18">
-        <v>0.26875359999999998</v>
-      </c>
-      <c r="Y18">
-        <v>1.1366769999999999</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="7"/>
-        <v>0.70271529999999993</v>
-      </c>
-      <c r="AA18">
-        <v>0.59049390000000002</v>
-      </c>
-      <c r="AB18">
-        <v>0.71793450000000003</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="8"/>
-        <v>0.65421419999999997</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="9"/>
-        <v>0.84698531111111108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+        <f>(E18+H18+K18+N18+Q18+T18+W18+Z18+AC18)/9</f>
+        <v>0.97948852222222227</v>
+      </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>106</v>
       </c>
@@ -2524,123 +2576,127 @@
         <v>0.93164469999999977</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:AF20" si="10">AVERAGE(D4:D18)</f>
-        <v>0.77188586666666659</v>
+        <f t="shared" ref="D20:AG20" si="0">AVERAGE(D4:D18)</f>
+        <v>0.77188586666666681</v>
       </c>
       <c r="E20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.85176528333333346</v>
       </c>
       <c r="F20">
-        <f t="shared" si="10"/>
-        <v>0.86144045333333341</v>
+        <f t="shared" si="0"/>
+        <v>0.8614404533333333</v>
       </c>
       <c r="G20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.75803695333333321</v>
       </c>
       <c r="H20">
-        <f t="shared" si="10"/>
-        <v>0.80973870333333309</v>
+        <f t="shared" si="0"/>
+        <v>0.80973870333333331</v>
       </c>
       <c r="I20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.73568783333333332</v>
       </c>
       <c r="J20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.76538542666666665</v>
       </c>
       <c r="K20">
-        <f t="shared" si="10"/>
-        <v>0.75053662999999982</v>
+        <f t="shared" si="0"/>
+        <v>0.75053662999999993</v>
       </c>
       <c r="L20">
-        <f t="shared" si="10"/>
-        <v>0.71513504000000006</v>
+        <f t="shared" si="0"/>
+        <v>0.71513503999999994</v>
       </c>
       <c r="M20">
-        <f t="shared" si="10"/>
-        <v>0.78241091333333324</v>
+        <f t="shared" si="0"/>
+        <v>0.78241091333333335</v>
       </c>
       <c r="N20">
-        <f t="shared" si="10"/>
-        <v>0.74877297666666665</v>
+        <f t="shared" si="0"/>
+        <v>0.74877297666666653</v>
       </c>
       <c r="O20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.82717338666666673</v>
       </c>
       <c r="P20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.91274372000000004</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="10"/>
-        <v>0.8699585533333335</v>
+        <f t="shared" si="0"/>
+        <v>0.86995855333333338</v>
       </c>
       <c r="R20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.7405144199999999</v>
       </c>
       <c r="S20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.94776781999999993</v>
       </c>
       <c r="T20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.84414111999999997</v>
       </c>
       <c r="U20">
-        <f t="shared" si="10"/>
-        <v>0.72684593333333325</v>
+        <f t="shared" si="0"/>
+        <v>0.72684593333333347</v>
       </c>
       <c r="V20">
-        <f t="shared" si="10"/>
-        <v>0.86804746666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.86804746666666677</v>
       </c>
       <c r="W20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.79744670000000006</v>
       </c>
       <c r="X20">
-        <f t="shared" si="10"/>
-        <v>0.66531915333333325</v>
+        <f t="shared" si="0"/>
+        <v>0.66531915333333336</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="10"/>
-        <v>0.8853623666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.88536236666666679</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.77534076000000007</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="10"/>
-        <v>0.73944022000000009</v>
+        <f t="shared" si="0"/>
+        <v>0.7394402200000002</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.77105343999999998</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="10"/>
-        <v>0.75524683000000015</v>
+        <f t="shared" si="0"/>
+        <v>0.75524683000000004</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="10"/>
-        <v>0.80032750629629634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>0.80032750629629623</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="0"/>
+        <v>3.2666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -2648,7 +2704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>33</v>
       </c>
@@ -2656,7 +2712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -2664,7 +2720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -2672,7 +2728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -2680,7 +2736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -2689,6 +2745,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AG18">
+    <sortCondition ref="AF4:AF18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
